--- a/data/trans_orig/P16A17-Nacimiento-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Nacimiento-trans_orig.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2007 (tasa de respuesta: 99,97%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2007 (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -913,7 +913,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2012 (tasa de respuesta: 99,21%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2012 (tasa de respuesta: 99,21%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1302,7 +1302,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1691,7 +1691,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2023 (tasa de respuesta: 99,89%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2023 (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
